--- a/File.xlsx
+++ b/File.xlsx
@@ -233,9 +233,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>10</col>
       <colOff>0</colOff>
-      <row>100</row>
+      <row>0</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4762500" cy="4762500"/>
@@ -260,7 +260,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4762500" cy="4762500"/>
@@ -285,7 +285,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4762500" cy="4762500"/>
@@ -310,7 +310,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>50</row>
+      <row>75</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="4762500" cy="4762500"/>
@@ -321,56 +321,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4762500" cy="4762500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>100</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4762500" cy="4762500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -476,6 +426,181 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>96</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>120</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>144</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>168</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>192</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>216</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>240</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -826,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,40 +962,33 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Unique values in distance: 877</t>
+          <t>Unique values in origin: 9</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unique values in origin: 9</t>
+          <t>Unique values in time: 4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unique values in time: 4</t>
+          <t>Unique values in weekday: 7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unique values in weekday: 7</t>
+          <t>Unique values in carrier: 17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
-        <is>
-          <t>Unique values in carrier: 17</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
         <is>
           <t>Total number of flights: 188446</t>
         </is>
@@ -887,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +1034,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>windspeed, count</t>
+          <t>scaled_carrier_score, count</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -932,46 +1050,46 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>windspeed, mean</t>
+          <t>scaled_carrier_score, mean</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.19427856799132</v>
+        <v>0.3905670897958907</v>
       </c>
       <c r="C3" t="n">
-        <v>24.72750719276613</v>
+        <v>0.4545936018581777</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.533228624774811</v>
+        <v>-0.06402651206228704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>windspeed, std</t>
+          <t>scaled_carrier_score, std</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.228473351241847</v>
+        <v>0.215791070499658</v>
       </c>
       <c r="C4" t="n">
-        <v>9.868102541910931</v>
+        <v>0.2321604272251812</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.639629190669083</v>
+        <v>-0.01636935672552325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>windspeed, min</t>
+          <t>scaled_carrier_score, min</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -980,71 +1098,71 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>windspeed, 25%</t>
+          <t>scaled_carrier_score, 25%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.2</v>
+        <v>0.2504093254617263</v>
       </c>
       <c r="C6" t="n">
-        <v>18.1</v>
+        <v>0.2660906682115591</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.900000000000002</v>
+        <v>-0.01568134274983279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>windspeed, 50%</t>
+          <t>scaled_carrier_score, 50%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.1</v>
+        <v>0.4154048580858139</v>
       </c>
       <c r="C7" t="n">
-        <v>23.4</v>
+        <v>0.4661435612119603</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.299999999999997</v>
+        <v>-0.05073870312614637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>windspeed, 75%</t>
+          <t>scaled_carrier_score, 75%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.3</v>
+        <v>0.5341557352139839</v>
       </c>
       <c r="C8" t="n">
-        <v>29.8</v>
+        <v>0.5341557352139839</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>windspeed, max</t>
+          <t>scaled_carrier_score, max</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>60.8</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C9" t="n">
-        <v>69.59999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.799999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>visibility, count</t>
+          <t>scaled_origin_score, count</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1060,46 +1178,46 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>visibility, mean</t>
+          <t>scaled_origin_score, mean</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.38421388363531</v>
+        <v>0.409875262482895</v>
       </c>
       <c r="C11" t="n">
-        <v>14.69085491163173</v>
+        <v>0.4981435460298098</v>
       </c>
       <c r="D11" t="n">
-        <v>0.693358972003578</v>
+        <v>-0.08826828354691479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>visibility, std</t>
+          <t>scaled_origin_score, std</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.447057416986083</v>
+        <v>0.3083690327627049</v>
       </c>
       <c r="C12" t="n">
-        <v>2.280851606231559</v>
+        <v>0.3085461640493239</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8337941892454763</v>
+        <v>-0.0001771312866190033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>visibility, min</t>
+          <t>scaled_origin_score, min</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1108,62 +1226,62 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>visibility, 25%</t>
+          <t>scaled_origin_score, 25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.6</v>
+        <v>0.03165030761917187</v>
       </c>
       <c r="C14" t="n">
-        <v>14.6</v>
+        <v>0.287038952909744</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>-0.2553886452905721</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>visibility, 50%</t>
+          <t>scaled_origin_score, 50%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>0.4227061839845677</v>
       </c>
       <c r="C15" t="n">
-        <v>15.9</v>
+        <v>0.4594418748061236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09999999999999964</v>
+        <v>-0.03673569082155592</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>visibility, 75%</t>
+          <t>scaled_origin_score, 75%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>0.5623382761690686</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>0.5855292197004996</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.02319094353143103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>visibility, max</t>
+          <t>scaled_origin_score, max</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1172,7 +1290,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>temp, count</t>
+          <t>scaled_time_score, count</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1188,46 +1306,46 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>temp, mean</t>
+          <t>scaled_time_score, mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.42787526438891</v>
+        <v>0.5082119577100601</v>
       </c>
       <c r="C19" t="n">
-        <v>15.01645088368269</v>
+        <v>0.5824084841872511</v>
       </c>
       <c r="D19" t="n">
-        <v>2.411424380706219</v>
+        <v>-0.07419652647719099</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>temp, std</t>
+          <t>scaled_time_score, std</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.906734952736782</v>
+        <v>0.3806762876303022</v>
       </c>
       <c r="C20" t="n">
-        <v>12.72826437613255</v>
+        <v>0.3728591468040586</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.821529423395768</v>
+        <v>0.007817140826243629</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>temp, min</t>
+          <t>scaled_time_score, min</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-24.1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-24.1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1236,71 +1354,71 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>temp, 25%</t>
+          <t>scaled_time_score, 25%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.9</v>
+        <v>0.07008503831613089</v>
       </c>
       <c r="C22" t="n">
-        <v>5.6</v>
+        <v>0.07008503831613089</v>
       </c>
       <c r="D22" t="n">
-        <v>5.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>temp, 50%</t>
+          <t>scaled_time_score, 50%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.1</v>
+        <v>0.6210291812838267</v>
       </c>
       <c r="C23" t="n">
-        <v>18.6</v>
+        <v>0.6210291812838267</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>temp, 75%</t>
+          <t>scaled_time_score, 75%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>25.1</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>temp, max</t>
+          <t>scaled_time_score, max</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>38.7</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sealevelpressure, count</t>
+          <t>scaled_weekday_score, count</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1316,46 +1434,46 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>sealevelpressure, mean</t>
+          <t>scaled_weekday_score, mean</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1016.43536040825</v>
+        <v>0.6756834737115058</v>
       </c>
       <c r="C27" t="n">
-        <v>1016.245478832717</v>
+        <v>0.741511269396895</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1898815755333771</v>
+        <v>-0.06582779568538921</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sealevelpressure, std</t>
+          <t>scaled_weekday_score, std</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.305718980799236</v>
+        <v>0.3240406849634232</v>
       </c>
       <c r="C28" t="n">
-        <v>7.203027850968731</v>
+        <v>0.2811054665673201</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8973088701694945</v>
+        <v>0.04293521839610315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sealevelpressure, min</t>
+          <t>scaled_weekday_score, min</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>989.9</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>989.9</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1364,64 +1482,960 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sealevelpressure, 25%</t>
+          <t>scaled_weekday_score, 25%</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1012.6</v>
+        <v>0.5162230960975169</v>
       </c>
       <c r="C30" t="n">
-        <v>1012.1</v>
+        <v>0.5521434152858216</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5</v>
+        <v>-0.03592031918830463</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sealevelpressure, 50%</t>
+          <t>scaled_weekday_score, 50%</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.1</v>
+        <v>0.8441483186536778</v>
       </c>
       <c r="C31" t="n">
-        <v>1015.8</v>
+        <v>0.8441483186536778</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3000000000000682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sealevelpressure, 75%</t>
+          <t>scaled_weekday_score, 75%</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1020.1</v>
+        <v>0.945829149215123</v>
       </c>
       <c r="C32" t="n">
-        <v>1020.5</v>
+        <v>0.945829149215123</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3999999999999773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>scaled_weekday_score, max</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>distance, count</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>178714</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9732</v>
+      </c>
+      <c r="D34" t="n">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>distance, mean</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>903.2796143558983</v>
+      </c>
+      <c r="C35" t="n">
+        <v>905.8004521167284</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-2.520837760830091</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>distance, std</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>614.3477337840344</v>
+      </c>
+      <c r="C36" t="n">
+        <v>570.3599878328489</v>
+      </c>
+      <c r="D36" t="n">
+        <v>43.9877459511855</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>distance, min</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>67</v>
+      </c>
+      <c r="C37" t="n">
+        <v>67</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>distance, 25%</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>431</v>
+      </c>
+      <c r="C38" t="n">
+        <v>495</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>distance, 50%</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>775</v>
+      </c>
+      <c r="C39" t="n">
+        <v>821</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>distance, 75%</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1162</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1120</v>
+      </c>
+      <c r="D40" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>distance, max</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4983</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4983</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>windspeed, count</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>178714</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9732</v>
+      </c>
+      <c r="D42" t="n">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>windspeed, mean</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>22.19427856799132</v>
+      </c>
+      <c r="C43" t="n">
+        <v>24.72750719276613</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.533228624774811</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>windspeed, std</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8.228473351241847</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.868102541910931</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1.639629190669083</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>windspeed, min</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>windspeed, 25%</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.900000000000002</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>windspeed, 50%</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-2.299999999999997</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>windspeed, 75%</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>windspeed, max</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-8.799999999999997</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>visibility, count</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>178714</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9732</v>
+      </c>
+      <c r="D50" t="n">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>visibility, mean</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>15.38421388363531</v>
+      </c>
+      <c r="C51" t="n">
+        <v>14.69085491163173</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.693358972003578</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>visibility, std</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.447057416986083</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.280851606231559</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8337941892454763</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>visibility, min</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>visibility, 25%</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>visibility, 50%</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>visibility, 75%</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>visibility, max</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>temp, count</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>178714</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9732</v>
+      </c>
+      <c r="D58" t="n">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>temp, mean</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>17.42787526438891</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15.01645088368269</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.411424380706219</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>temp, std</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9.906734952736782</v>
+      </c>
+      <c r="C60" t="n">
+        <v>12.72826437613255</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-2.821529423395768</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>temp, min</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-24.1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>temp, 25%</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.300000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>temp, 50%</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>temp, 75%</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>25</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>temp, max</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>39</v>
+      </c>
+      <c r="C65" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>sealevelpressure, count</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>178714</v>
+      </c>
+      <c r="C66" t="n">
+        <v>9732</v>
+      </c>
+      <c r="D66" t="n">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sealevelpressure, mean</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1016.43536040825</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1016.245478832717</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1898815755333771</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>sealevelpressure, std</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6.305718980799236</v>
+      </c>
+      <c r="C68" t="n">
+        <v>7.203027850968731</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.8973088701694945</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>sealevelpressure, min</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>989.9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>989.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>sealevelpressure, 25%</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1012.6</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1012.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>sealevelpressure, 50%</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1016.1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1015.8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.3000000000000682</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>sealevelpressure, 75%</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1020.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>sealevelpressure, max</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B73" t="n">
         <v>1040</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C73" t="n">
         <v>1040</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>precip, count</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>178714</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9732</v>
+      </c>
+      <c r="D74" t="n">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>precip, mean</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1.868921338003738</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5.931136970817921</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-4.062215632814183</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>precip, std</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6.481796499511958</v>
+      </c>
+      <c r="C76" t="n">
+        <v>19.00949859669073</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-12.52770209717877</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>precip, min</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>precip, 25%</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>precip, 50%</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>precip, 75%</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.554</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-3.322</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>precip, max</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>179.173</v>
+      </c>
+      <c r="C81" t="n">
+        <v>179.173</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>cloudcover, count</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>178714</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9732</v>
+      </c>
+      <c r="D82" t="n">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>cloudcover, mean</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>42.96317635999417</v>
+      </c>
+      <c r="C83" t="n">
+        <v>52.09902383888205</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-9.135847478887875</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>cloudcover, std</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>29.45161727445082</v>
+      </c>
+      <c r="C84" t="n">
+        <v>30.81784890267701</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-1.366231628226185</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>cloudcover, min</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>cloudcover, 25%</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>cloudcover, 50%</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>cloudcover, 75%</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C88" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-11.8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>cloudcover, max</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>100</v>
+      </c>
+      <c r="C89" t="n">
+        <v>100</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
